--- a/results/time_series_results/res_trafo/pl_mw.xlsx
+++ b/results/time_series_results/res_trafo/pl_mw.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00200873290742784</v>
+        <v>0.002010794286281446</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001975111027870319</v>
+        <v>0.001988471970803499</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001865238835814818</v>
+        <v>0.001874611085247446</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001802550263088197</v>
+        <v>0.001806734883126142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001735751044686606</v>
+        <v>0.001737023309355774</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001728879509063492</v>
+        <v>0.00172949175608389</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001712657739425787</v>
+        <v>0.001713287325643253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001701757751976344</v>
+        <v>0.00170160760836088</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.001723276323578372</v>
+        <v>0.001726680909381061</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.001723867766618745</v>
+        <v>0.001729417691815737</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.001763620074290422</v>
+        <v>0.001771516567434843</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.001794302819031909</v>
+        <v>0.001799390806644954</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.00186421209455255</v>
+        <v>0.001861472035883445</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.001909252823783847</v>
+        <v>0.00190251770434649</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.001912875540832561</v>
+        <v>0.001904365856042749</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001927792687277698</v>
+        <v>0.001918037307959322</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.001972251011488568</v>
+        <v>0.001963454386877658</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001991567265384311</v>
+        <v>0.001980449514268796</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.001915846720499263</v>
+        <v>0.001909777294385621</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.001826777928773456</v>
+        <v>0.001825207890106546</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.001775262248606947</v>
+        <v>0.001778392750576681</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.001858226180789131</v>
+        <v>0.001867419132322384</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.00193570479106428</v>
+        <v>0.001939775957880495</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.001992248305541913</v>
+        <v>0.001996486966104133</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.001878388852900079</v>
+        <v>0.001888098371590673</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.001829441622003478</v>
+        <v>0.001840961430717478</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.001825435963055323</v>
+        <v>0.001837134169593115</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.001758631201202569</v>
+        <v>0.001762323715922286</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.001704479654633727</v>
+        <v>0.00170560729286744</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.001702120624508304</v>
+        <v>0.001702590571743295</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.001691640052885454</v>
+        <v>0.001691738456173424</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.001693266988127121</v>
+        <v>0.001693624902180384</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.001712772263417327</v>
+        <v>0.001715104541958012</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.001708002877084423</v>
+        <v>0.001712205048870558</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.001766060154334611</v>
+        <v>0.001776957854610954</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.001806242244137234</v>
+        <v>0.001815623560421944</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.001853005823382041</v>
+        <v>0.001855800697878787</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.001825397189935164</v>
+        <v>0.001821635395761204</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.001855004123669339</v>
+        <v>0.00184826296784802</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.001928447476632032</v>
+        <v>0.001910968128203176</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.002051086269847804</v>
+        <v>0.002026230194886895</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.002035981571588005</v>
+        <v>0.002039762092639556</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001972785076958569</v>
+        <v>0.001965600523009606</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.001897643141320869</v>
+        <v>0.001898995188087019</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.001912332019501035</v>
+        <v>0.001912239757072748</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.00184938208971782</v>
+        <v>0.001852818781401012</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.001897205333756168</v>
+        <v>0.001898949012305848</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.001920975334733253</v>
+        <v>0.001922057481975339</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.001818340891935936</v>
+        <v>0.001823422695652305</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.001833707338943599</v>
+        <v>0.001842227961072383</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.001815659177056214</v>
+        <v>0.001821667298371285</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.001783639789568813</v>
+        <v>0.001788050818798868</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.001741444352638646</v>
+        <v>0.00174332786726087</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.001737090852379577</v>
+        <v>0.001738095619805455</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.001708559000517453</v>
+        <v>0.001709094749731188</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.00169570566116909</v>
+        <v>0.001696067000628913</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.001709125690462658</v>
+        <v>0.001711088981386184</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.001707951551553157</v>
+        <v>0.001711983779034903</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.001797162500676575</v>
+        <v>0.001806671757880282</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.001819686800010392</v>
+        <v>0.001826648889114289</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.001837929068291208</v>
+        <v>0.001836536019103718</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.001806684421887975</v>
+        <v>0.001796344449362317</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.001815548022306518</v>
+        <v>0.001809233425069036</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.001850339800642829</v>
+        <v>0.001839830087766954</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.001980920561609735</v>
+        <v>0.001971224334434675</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.002001667907557264</v>
+        <v>0.002010053766587167</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.001901743100684881</v>
+        <v>0.001900404354427662</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.001860554093889424</v>
+        <v>0.001862224378722688</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.00179538234245246</v>
+        <v>0.001798769075431233</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.001772609091097048</v>
+        <v>0.001777130255585704</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.001778145544169944</v>
+        <v>0.001783624654667679</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.001842299542685936</v>
+        <v>0.00185025470975321</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.001796644227204814</v>
+        <v>0.001802678631328831</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.001778886104553696</v>
+        <v>0.001789690339518028</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.00177311839388564</v>
+        <v>0.001779408739115227</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.001737402080942391</v>
+        <v>0.001739541199290102</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.00172143489737047</v>
+        <v>0.001722327359191225</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.001716669884022078</v>
+        <v>0.001716970695826079</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.001708329365479107</v>
+        <v>0.001708401432498636</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.001713814767283911</v>
+        <v>0.001715823610465083</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.001713717841638422</v>
+        <v>0.001717018040717482</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001710961272948581</v>
+        <v>0.001715559355498157</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.001747459516664718</v>
+        <v>0.001757538363720251</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.001757281620139883</v>
+        <v>0.001759088992153917</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.001741474567173613</v>
+        <v>0.001738418945930277</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.001725968128931409</v>
+        <v>0.001723174254555353</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.001761061084720069</v>
+        <v>0.001753069174933571</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.001856593931868017</v>
+        <v>0.001851496404053882</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.001907018080864166</v>
+        <v>0.001909303504340674</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.001888358619044253</v>
+        <v>0.001902019310746336</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.001815840749152531</v>
+        <v>0.001823173751343908</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.001821075117011163</v>
+        <v>0.001833316914227306</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.00184969959279889</v>
+        <v>0.001862054037279112</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.001888974859231042</v>
+        <v>0.001898187843233569</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.001899934133952473</v>
+        <v>0.001913224666036765</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001896866382141149</v>
+        <v>0.001907214497369185</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.001938052878766736</v>
+        <v>0.001950962836258854</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001866284039754709</v>
+        <v>0.001886261285304419</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.001844443767105908</v>
+        <v>0.001853823725946495</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.001775175765668734</v>
+        <v>0.001780498817076544</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.001761176198949586</v>
+        <v>0.001766111435949336</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.001740808668781926</v>
+        <v>0.001743572628059832</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.001725176245124735</v>
+        <v>0.00172658153233406</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.001703553448319534</v>
+        <v>0.001705071521049727</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.001718362441550856</v>
+        <v>0.001722119184085085</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.001726218759644363</v>
+        <v>0.001730981931701493</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.001768065639110097</v>
+        <v>0.001779311019993547</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.001754439371661764</v>
+        <v>0.001753498285890689</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.001768998084287338</v>
+        <v>0.001769385197395484</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.001750385279170815</v>
+        <v>0.001745167408220526</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.001851226347541264</v>
+        <v>0.001840418166673366</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.00186097906005335</v>
+        <v>0.001850328571413318</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.001910597642451189</v>
+        <v>0.001908656143567181</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.001904387035995436</v>
+        <v>0.001896381840708124</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.001929123328749366</v>
+        <v>0.001924570984737799</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.002012848879381045</v>
+        <v>0.002017312066973261</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.002017349399099706</v>
+        <v>0.002020107324196205</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.002046763902632524</v>
+        <v>0.002055837959678196</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.002043909044275614</v>
+        <v>0.00205112098904478</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.00204466945357637</v>
+        <v>0.002051028579481647</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.001922614139029354</v>
+        <v>0.001935164455899266</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.00186930170645578</v>
+        <v>0.001883417707622709</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.001818026984797126</v>
+        <v>0.001827177686947595</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.001774685799695502</v>
+        <v>0.001780394861014323</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.001756532178051488</v>
+        <v>0.001761168238874289</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.001744338156532566</v>
+        <v>0.001748349196921111</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.001725610077679129</v>
+        <v>0.001727058038188456</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.001716212858830779</v>
+        <v>0.001718944178393345</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.001725801455483619</v>
+        <v>0.001730573666774302</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.001735069182956885</v>
+        <v>0.001742258272892004</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.00181591016373777</v>
+        <v>0.001827122600765063</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.00178949473691329</v>
+        <v>0.001789106974473414</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.001908710388962225</v>
+        <v>0.001913297150535238</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.001894011544818573</v>
+        <v>0.001894451444103447</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.001967551748029796</v>
+        <v>0.001963403272863852</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.002023593897151031</v>
+        <v>0.002014783043071969</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.002093895488900273</v>
+        <v>0.002086873590939599</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.002169144763847261</v>
+        <v>0.002167757386485281</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.001974866851099044</v>
+        <v>0.001974542142958682</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.001987457430008464</v>
+        <v>0.001990951006790538</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.002014455456392915</v>
+        <v>0.002017252032751431</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.002156348046642192</v>
+        <v>0.002163064907497236</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.002151240373746761</v>
+        <v>0.002160840814076692</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.002143506968432046</v>
+        <v>0.002147822463963056</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.002067653507461166</v>
+        <v>0.002076246576100248</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.001971365511494967</v>
+        <v>0.001986706969004992</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001919628383714025</v>
+        <v>0.00193238805299565</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.001784419211305923</v>
+        <v>0.001786898043279774</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.001768819333865485</v>
+        <v>0.001771846844360991</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.001734478441314004</v>
+        <v>0.001736053077939819</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.001721007905551335</v>
+        <v>0.001721487829243501</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.001707282656697461</v>
+        <v>0.001708015052852962</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.001721922565183113</v>
+        <v>0.001723589212282311</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.001725209317740613</v>
+        <v>0.001728859996783665</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.001796921937020305</v>
+        <v>0.001806831369043325</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.001834531102294402</v>
+        <v>0.001842809445934332</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.001856708116149186</v>
+        <v>0.001865098427517538</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.001844221291042988</v>
+        <v>0.00185021968984881</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.001850999807209423</v>
+        <v>0.001854555373864038</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.001862435804732526</v>
+        <v>0.001860743972912936</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.001966438557220382</v>
+        <v>0.001975927459927966</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.00200776875598447</v>
+        <v>0.002020894272148306</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.001892254307755026</v>
+        <v>0.001904175660122444</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.001908527033010449</v>
+        <v>0.001921189486107096</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.001958269103461918</v>
+        <v>0.001959605212307779</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.002068821813279366</v>
+        <v>0.002069990616111801</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.002035124130098813</v>
+        <v>0.002034692231367832</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.002086513805124042</v>
+        <v>0.002080695790339704</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.002006046166469655</v>
+        <v>0.00200452546361251</v>
       </c>
     </row>
   </sheetData>

--- a/results/time_series_results/res_trafo/pl_mw.xlsx
+++ b/results/time_series_results/res_trafo/pl_mw.xlsx
@@ -366,1367 +366,1613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.002010794286281446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.004837039450722128</v>
+      </c>
+      <c r="C2">
+        <v>0.00424954030733312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.001988471970803499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.004833846860499542</v>
+      </c>
+      <c r="C3">
+        <v>0.004212228970689964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001874611085247446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.004833420262574092</v>
+      </c>
+      <c r="C4">
+        <v>0.004218003456370474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001806734883126142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.004828674360045838</v>
+      </c>
+      <c r="C5">
+        <v>0.004225319153630371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001737023309355774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.004833992487000227</v>
+      </c>
+      <c r="C6">
+        <v>0.004198102245960129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.00172949175608389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004827325777939928</v>
+      </c>
+      <c r="C7">
+        <v>0.004199632935802444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001713287325643253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004832653006579944</v>
+      </c>
+      <c r="C8">
+        <v>0.004207620081840807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00170160760836088</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004830851760150752</v>
+      </c>
+      <c r="C9">
+        <v>0.004190006229642884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.001726680909381061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004870587808031256</v>
+      </c>
+      <c r="C10">
+        <v>0.004145494444321489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.001729417691815737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.0048951385838596</v>
+      </c>
+      <c r="C11">
+        <v>0.004171734337329765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.001771516567434843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004898497585727739</v>
+      </c>
+      <c r="C12">
+        <v>0.004229731289984225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.001799390806644954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.004888279380559017</v>
+      </c>
+      <c r="C13">
+        <v>0.004257092587946779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.001861472035883445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.004969669754085748</v>
+      </c>
+      <c r="C14">
+        <v>0.004220068919977969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.00190251770434649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005243334851097139</v>
+      </c>
+      <c r="C15">
+        <v>0.00421290070865752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.001904365856042749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00523232662730827</v>
+      </c>
+      <c r="C16">
+        <v>0.004232202892812773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001918037307959322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.005252502010518925</v>
+      </c>
+      <c r="C17">
+        <v>0.004237113944349412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.001963454386877658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.005197619303504417</v>
+      </c>
+      <c r="C18">
+        <v>0.004246551364988409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001980449514268796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.005079226717305471</v>
+      </c>
+      <c r="C19">
+        <v>0.004235543591521181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.001909777294385621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.004993227975466266</v>
+      </c>
+      <c r="C20">
+        <v>0.00423816451175759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.001825207890106546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.004928280334990334</v>
+      </c>
+      <c r="C21">
+        <v>0.00421217717384946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.001778392750576681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.004926475800062585</v>
+      </c>
+      <c r="C22">
+        <v>0.004240451073274337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.001867419132322384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.004923062564237891</v>
+      </c>
+      <c r="C23">
+        <v>0.004398897859321071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.001939775957880495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004859812283542479</v>
+      </c>
+      <c r="C24">
+        <v>0.004393338699188565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.001996486966104133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.004829980464740341</v>
+      </c>
+      <c r="C25">
+        <v>0.004328264276755145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.001888098371590673</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.004836843134163084</v>
+      </c>
+      <c r="C26">
+        <v>0.004286198311321612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.001840961430717478</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.004835413349165332</v>
+      </c>
+      <c r="C27">
+        <v>0.00423937702542837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.001837134169593115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.004833674275846384</v>
+      </c>
+      <c r="C28">
+        <v>0.004237556649478003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.001762323715922286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.004832878171928214</v>
+      </c>
+      <c r="C29">
+        <v>0.004223638988617787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.00170560729286744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.004833429394735869</v>
+      </c>
+      <c r="C30">
+        <v>0.004207952518523933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.001702590571743295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.004829447282286591</v>
+      </c>
+      <c r="C31">
+        <v>0.004214664111873337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.001691738456173424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004838461742514885</v>
+      </c>
+      <c r="C32">
+        <v>0.004199608685284864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.001693624902180384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.004836600461246982</v>
+      </c>
+      <c r="C33">
+        <v>0.00419357768098913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.001715104541958012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004879668794998196</v>
+      </c>
+      <c r="C34">
+        <v>0.004148480952123796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.001712205048870558</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004920245817903214</v>
+      </c>
+      <c r="C35">
+        <v>0.00415712325318085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.001776957854610954</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.004914511336009279</v>
+      </c>
+      <c r="C36">
+        <v>0.004201877784684234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.001815623560421944</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.004905849178336509</v>
+      </c>
+      <c r="C37">
+        <v>0.004215868780437101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.001855800697878787</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.004966966685528193</v>
+      </c>
+      <c r="C38">
+        <v>0.004170016074582096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.001821635395761204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.005179264633592195</v>
+      </c>
+      <c r="C39">
+        <v>0.004146614222936176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.00184826296784802</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.005304673054537037</v>
+      </c>
+      <c r="C40">
+        <v>0.004214540808675657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.001910968128203176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.005197713165745438</v>
+      </c>
+      <c r="C41">
+        <v>0.004248958281191838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.002026230194886895</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.005210257488185696</v>
+      </c>
+      <c r="C42">
+        <v>0.004241518126832947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.002039762092639556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.005051837278928287</v>
+      </c>
+      <c r="C43">
+        <v>0.004315939908305033</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001965600523009606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.004958631408839939</v>
+      </c>
+      <c r="C44">
+        <v>0.004368507135378855</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.001898995188087019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.004930597663965808</v>
+      </c>
+      <c r="C45">
+        <v>0.004229531705963678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.001912239757072748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.004931267369822245</v>
+      </c>
+      <c r="C46">
+        <v>0.004342463526860671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.001852818781401012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.004932933111887132</v>
+      </c>
+      <c r="C47">
+        <v>0.00447429258815997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.001898949012305848</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.004852834457695174</v>
+      </c>
+      <c r="C48">
+        <v>0.004482806551649038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.001922057481975339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.004831206022385057</v>
+      </c>
+      <c r="C49">
+        <v>0.004394579043651731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.001823422695652305</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004837546007047444</v>
+      </c>
+      <c r="C50">
+        <v>0.004267122941880835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.001842227961072383</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004837264321289184</v>
+      </c>
+      <c r="C51">
+        <v>0.004238280160725347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.001821667298371285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.00484103778725186</v>
+      </c>
+      <c r="C52">
+        <v>0.00427018961020284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.001788050818798868</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.004831445777642475</v>
+      </c>
+      <c r="C53">
+        <v>0.004260031691172145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.00174332786726087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.004832887101649343</v>
+      </c>
+      <c r="C54">
+        <v>0.004239216211525808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.001738095619805455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.004830024207475823</v>
+      </c>
+      <c r="C55">
+        <v>0.004238148203689576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.001709094749731188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.004833031416767178</v>
+      </c>
+      <c r="C56">
+        <v>0.004224511489743787</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.001696067000628913</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.004829787716275978</v>
+      </c>
+      <c r="C57">
+        <v>0.004182302016182228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.001711088981386184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.00484703441976142</v>
+      </c>
+      <c r="C58">
+        <v>0.004158746103631122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.001711983779034903</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.004891461481416143</v>
+      </c>
+      <c r="C59">
+        <v>0.004165465623698301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.001806671757880282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.004914631412986897</v>
+      </c>
+      <c r="C60">
+        <v>0.004176210669788162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.001826648889114289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.004939967264286402</v>
+      </c>
+      <c r="C61">
+        <v>0.004212658747605104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.001836536019103718</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.005056288030371822</v>
+      </c>
+      <c r="C62">
+        <v>0.004196492520650956</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.001796344449362317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.005118719413424094</v>
+      </c>
+      <c r="C63">
+        <v>0.004159235657866557</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.001809233425069036</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.005301230153085548</v>
+      </c>
+      <c r="C64">
+        <v>0.00417196452478695</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.001839830087766954</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.005230198558035665</v>
+      </c>
+      <c r="C65">
+        <v>0.004234674391258887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.001971224334434675</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0051829123263821</v>
+      </c>
+      <c r="C66">
+        <v>0.004207214470897336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.002010053766587167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.005012165954350806</v>
+      </c>
+      <c r="C67">
+        <v>0.004265009511881364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.001900404354427662</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.004932172167095544</v>
+      </c>
+      <c r="C68">
+        <v>0.004378147836556781</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.001862224378722688</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.004926599906501725</v>
+      </c>
+      <c r="C69">
+        <v>0.004381943831550161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.001798769075431233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.004911785179471315</v>
+      </c>
+      <c r="C70">
+        <v>0.004503352124664822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.001777130255585704</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004919311231177503</v>
+      </c>
+      <c r="C71">
+        <v>0.004609259054254272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.001783624654667679</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.00486402723904774</v>
+      </c>
+      <c r="C72">
+        <v>0.004496372055822512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.00185025470975321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.004830657470048898</v>
+      </c>
+      <c r="C73">
+        <v>0.004397466424766266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.001802678631328831</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.004834375641954415</v>
+      </c>
+      <c r="C74">
+        <v>0.004267217209011367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.001789690339518028</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.004836647016059882</v>
+      </c>
+      <c r="C75">
+        <v>0.00423059888724639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.001779408739115227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.004835616384759163</v>
+      </c>
+      <c r="C76">
+        <v>0.004238816981261988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.001739541199290102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.004832760918930611</v>
+      </c>
+      <c r="C77">
+        <v>0.00424959128061031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.001722327359191225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.004833583378551082</v>
+      </c>
+      <c r="C78">
+        <v>0.004202855780378066</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.001716970695826079</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.004825025456924266</v>
+      </c>
+      <c r="C79">
+        <v>0.004205760988649415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.001708401432498636</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.00482957791851496</v>
+      </c>
+      <c r="C80">
+        <v>0.004195853216677502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.001715823610465083</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.004826375050439584</v>
+      </c>
+      <c r="C81">
+        <v>0.004185968599165243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.001717018040717482</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.004909433742439635</v>
+      </c>
+      <c r="C82">
+        <v>0.004154035256815285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.001715559355498157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.004936234459346239</v>
+      </c>
+      <c r="C83">
+        <v>0.004189125975441473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.001757538363720251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.004929186823571095</v>
+      </c>
+      <c r="C84">
+        <v>0.004185875352939065</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.001759088992153917</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.004968844102619774</v>
+      </c>
+      <c r="C85">
+        <v>0.004234926619704239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.001738418945930277</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005043573770835988</v>
+      </c>
+      <c r="C86">
+        <v>0.004273728084921498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.001723174254555353</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.005309212736796409</v>
+      </c>
+      <c r="C87">
+        <v>0.004291185590422478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.001753069174933571</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.005232430502082691</v>
+      </c>
+      <c r="C88">
+        <v>0.004301200291015217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.001851496404053882</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.005182321265363748</v>
+      </c>
+      <c r="C89">
+        <v>0.00425941498707931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.001909303504340674</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005194705725812432</v>
+      </c>
+      <c r="C90">
+        <v>0.004227173691154842</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.001902019310746336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.005102751818942444</v>
+      </c>
+      <c r="C91">
+        <v>0.004233798534441294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.001823173751343908</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.005000146706352626</v>
+      </c>
+      <c r="C92">
+        <v>0.004292849786864367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.001833316914227306</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004960076525623691</v>
+      </c>
+      <c r="C93">
+        <v>0.004323011024573539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.001862054037279112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.004975755443727109</v>
+      </c>
+      <c r="C94">
+        <v>0.004407002827400544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.001898187843233569</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.004943403983392158</v>
+      </c>
+      <c r="C95">
+        <v>0.004400581149236665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.001913224666036765</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.004956898090904202</v>
+      </c>
+      <c r="C96">
+        <v>0.00437302155394298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001907214497369185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.005000441398126262</v>
+      </c>
+      <c r="C97">
+        <v>0.004309625123559792</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.001950962836258854</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.004948527481831208</v>
+      </c>
+      <c r="C98">
+        <v>0.004244796272031087</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001886261285304419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.004914196474926552</v>
+      </c>
+      <c r="C99">
+        <v>0.004264835534004571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.001853823725946495</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.004858424296178651</v>
+      </c>
+      <c r="C100">
+        <v>0.004234394032772634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.001780498817076544</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00483373775669934</v>
+      </c>
+      <c r="C101">
+        <v>0.004237286970881729</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.001766111435949336</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>0.004833910524108538</v>
+      </c>
+      <c r="C102">
+        <v>0.004246659844995594</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.001743572628059832</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.004829656577654697</v>
+      </c>
+      <c r="C103">
+        <v>0.004232826975932615</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.00172658153233406</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.004829560517508803</v>
+      </c>
+      <c r="C104">
+        <v>0.004215901007934439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.001705071521049727</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>0.004827564814755304</v>
+      </c>
+      <c r="C105">
+        <v>0.004183536580898803</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.001722119184085085</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>0.004861414031776798</v>
+      </c>
+      <c r="C106">
+        <v>0.004168693465623541</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.001730981931701493</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.004898487353837924</v>
+      </c>
+      <c r="C107">
+        <v>0.004165003451404185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.001779311019993547</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>0.004940134229777564</v>
+      </c>
+      <c r="C108">
+        <v>0.004172133481108564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.001753498285890689</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>0.004950187441990939</v>
+      </c>
+      <c r="C109">
+        <v>0.004234189167138677</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.001769385197395484</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>0.004986374762138188</v>
+      </c>
+      <c r="C110">
+        <v>0.004250271865094982</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.001745167408220526</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>0.005220380333854774</v>
+      </c>
+      <c r="C111">
+        <v>0.004202013514018214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.001840418166673366</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.005237306679106199</v>
+      </c>
+      <c r="C112">
+        <v>0.004208168444497569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.001850328571413318</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>0.005195150783723193</v>
+      </c>
+      <c r="C113">
+        <v>0.004271441687788168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.001908656143567181</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>0.00522822425018056</v>
+      </c>
+      <c r="C114">
+        <v>0.004232230125129806</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.001896381840708124</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.005006677269406998</v>
+      </c>
+      <c r="C115">
+        <v>0.004241121264066228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.001924570984737799</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>0.005013705806801549</v>
+      </c>
+      <c r="C116">
+        <v>0.004272049048420906</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.002017312066973261</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>0.004995936613741703</v>
+      </c>
+      <c r="C117">
+        <v>0.004334103928560026</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.002020107324196205</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>0.004943806609189701</v>
+      </c>
+      <c r="C118">
+        <v>0.004320459647984526</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.002055837959678196</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.00492316295965986</v>
+      </c>
+      <c r="C119">
+        <v>0.004304206253518267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.00205112098904478</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.004919731380062936</v>
+      </c>
+      <c r="C120">
+        <v>0.004281300369490044</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.002051028579481647</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>0.004944879143484238</v>
+      </c>
+      <c r="C121">
+        <v>0.004256097341586884</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.001935164455899266</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.004887811248701412</v>
+      </c>
+      <c r="C122">
+        <v>0.004218114909193361</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.001883417707622709</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>0.004863363399099159</v>
+      </c>
+      <c r="C123">
+        <v>0.004191690293120401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.001827177686947595</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>0.004811240546931033</v>
+      </c>
+      <c r="C124">
+        <v>0.004196945756803176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.001780394861014323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>0.004809225077173872</v>
+      </c>
+      <c r="C125">
+        <v>0.004183256614083371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.001761168238874289</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>0.004808258753439924</v>
+      </c>
+      <c r="C126">
+        <v>0.004169093206132179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.001748349196921111</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>0.004808756585895961</v>
+      </c>
+      <c r="C127">
+        <v>0.004177219646271026</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.001727058038188456</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>0.004807719389420297</v>
+      </c>
+      <c r="C128">
+        <v>0.00417641276411327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.001718944178393345</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>0.004808610108321103</v>
+      </c>
+      <c r="C129">
+        <v>0.004155528226658635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.001730573666774302</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>0.004844634848417621</v>
+      </c>
+      <c r="C130">
+        <v>0.004144704704504842</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.001742258272892004</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>0.004859562255230356</v>
+      </c>
+      <c r="C131">
+        <v>0.004149712794767169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.001827122600765063</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>0.004881713400732672</v>
+      </c>
+      <c r="C132">
+        <v>0.004155566348674207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.001789106974473414</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.004896288337326554</v>
+      </c>
+      <c r="C133">
+        <v>0.004167977439818921</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.001913297150535238</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0.005072765076073807</v>
+      </c>
+      <c r="C134">
+        <v>0.004166454672399407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.001894451444103447</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.005342605617752724</v>
+      </c>
+      <c r="C135">
+        <v>0.004146633103238907</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.001963403272863852</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>0.005284481691301954</v>
+      </c>
+      <c r="C136">
+        <v>0.004229494096706823</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.002014783043071969</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>0.005247439053858022</v>
+      </c>
+      <c r="C137">
+        <v>0.004339177384238238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.002086873590939599</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.005219432631124801</v>
+      </c>
+      <c r="C138">
+        <v>0.004267755943817515</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.002167757386485281</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>0.004995637210345641</v>
+      </c>
+      <c r="C139">
+        <v>0.004211394750264871</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.001974542142958682</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>0.004948287830333811</v>
+      </c>
+      <c r="C140">
+        <v>0.004213694743978716</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.001990951006790538</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0.004927650659486131</v>
+      </c>
+      <c r="C141">
+        <v>0.004219075417417721</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.002017252032751431</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>0.004954338796963859</v>
+      </c>
+      <c r="C142">
+        <v>0.004269971192153901</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.002163064907497236</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>0.004948303993759048</v>
+      </c>
+      <c r="C143">
+        <v>0.004304376948391544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.002160840814076692</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>0.004946845446310119</v>
+      </c>
+      <c r="C144">
+        <v>0.004339612169494467</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.002147822463963056</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0.004980240887228371</v>
+      </c>
+      <c r="C145">
+        <v>0.00430509202505143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.002076246576100248</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>0.001986706969004992</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>0.00193238805299565</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>0.001786898043279774</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>0.001771846844360991</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>0.001736053077939819</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>0.001721487829243501</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>0.001708015052852962</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>0.001723589212282311</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>0.001728859996783665</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>0.001806831369043325</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>0.001842809445934332</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>0.001865098427517538</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>0.00185021968984881</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>0.001854555373864038</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>0.001860743972912936</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>0.001975927459927966</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>0.002020894272148306</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>0.001904175660122444</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>0.001921189486107096</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>0.001959605212307779</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>0.002069990616111801</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>0.002034692231367832</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>0.002080695790339704</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>0.00200452546361251</v>
+        <v>0.004936728274048958</v>
+      </c>
+      <c r="C146">
+        <v>0.004276813582177894</v>
       </c>
     </row>
   </sheetData>
